--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3708.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3708.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.283344102518952</v>
+        <v>1.531202554702759</v>
       </c>
       <c r="B1">
-        <v>2.431749522459353</v>
+        <v>3.119097709655762</v>
       </c>
       <c r="C1">
-        <v>6.843205417889035</v>
+        <v>4.684049606323242</v>
       </c>
       <c r="D1">
-        <v>2.345576586944551</v>
+        <v>1.855604887008667</v>
       </c>
       <c r="E1">
-        <v>1.089620991700712</v>
+        <v>1.171880602836609</v>
       </c>
     </row>
   </sheetData>
